--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Designs\Diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC17ECA-2F36-4D38-9D11-4B91D186123A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105105AE-5A5E-49E9-AD4C-69C1E657C014}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{D1CFD8B2-492F-4A7C-A0B0-7AAEEEEDCE0B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Субконтр</t>
   </si>
@@ -73,6 +73,45 @@
   </si>
   <si>
     <t>си</t>
+  </si>
+  <si>
+    <t>Октава</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -126,6 +165,52 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86EB77DC-BE30-4FDE-AEBF-862141E02066}" name="Таблиця2" displayName="Таблиця2" ref="C29:O39" totalsRowShown="0">
+  <autoFilter ref="C29:O39" xr:uid="{B007F4DA-2CF4-47B0-A7F6-F37C717C56AD}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{0855A16A-B7D5-4CFE-8B2B-A808C75E92E6}" name="Октава"/>
+    <tableColumn id="2" xr3:uid="{F86AA56E-6531-4A27-81EA-CF79AFAEC122}" name="1">
+      <calculatedColumnFormula>ROUND(D17,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{1BA78F4D-F30E-41A8-ACF8-F19EF8E9E9DB}" name="2">
+      <calculatedColumnFormula>ROUND(E17,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{4CCEC3DE-E15B-4EB0-990B-368420DE4F8E}" name="3">
+      <calculatedColumnFormula>ROUND(F17,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{8131224A-AF44-42EA-9E07-4484CBF46782}" name="4">
+      <calculatedColumnFormula>ROUND(G17,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{58A5169E-64B9-4ED8-A84A-E31AAAA1CD9B}" name="5">
+      <calculatedColumnFormula>ROUND(H17,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{C757A9BB-10D1-4343-9E71-214419D63D65}" name="6">
+      <calculatedColumnFormula>ROUND(I17,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{E6740EC5-FA51-4767-AB9B-38805A03BE82}" name="7">
+      <calculatedColumnFormula>ROUND(J17,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{7716173A-A5AD-4991-809E-03EDC799CDF2}" name="8">
+      <calculatedColumnFormula>ROUND(K17,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{7968C78C-1718-4829-A42A-C2E3EBA80689}" name="9">
+      <calculatedColumnFormula>ROUND(L17,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{D87E2242-7FAD-4853-88A0-03A85B0C4B9D}" name="10">
+      <calculatedColumnFormula>ROUND(M17,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{6573C999-9929-40D5-A86A-BFA15A8181F7}" name="11">
+      <calculatedColumnFormula>ROUND(N17,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{33279D52-2397-447E-9CD0-2369404DB0DF}" name="12">
+      <calculatedColumnFormula>ROUND(O17,0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,11 +512,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB51723-A4A2-4B7B-A33B-2358027C38E0}">
   <dimension ref="C4:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D30" sqref="D30:O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="15" width="13.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
@@ -1391,7 +1480,7 @@
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D26">
-        <f t="shared" ref="D26:O27" si="21">D13*(2^31) / 50000000</f>
+        <f t="shared" ref="D26:H27" si="21">D13*(2^31) / 50000000</f>
         <v>179792.14137393152</v>
       </c>
       <c r="E26">
@@ -1490,41 +1579,44 @@
       </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29">
-        <v>4</v>
-      </c>
-      <c r="I29">
-        <v>5</v>
-      </c>
-      <c r="J29">
-        <v>6</v>
-      </c>
-      <c r="K29">
-        <v>7</v>
-      </c>
-      <c r="L29">
-        <v>8</v>
-      </c>
-      <c r="M29">
-        <v>9</v>
-      </c>
-      <c r="N29">
-        <v>10</v>
-      </c>
-      <c r="O29">
-        <v>11</v>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
@@ -1532,51 +1624,51 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:O30" si="24">ROUND(D18,0)</f>
+        <f>ROUND(D18,0)</f>
         <v>702</v>
       </c>
       <c r="E30">
-        <f t="shared" si="24"/>
+        <f>ROUND(E18,0)</f>
         <v>744</v>
       </c>
       <c r="F30">
-        <f t="shared" si="24"/>
+        <f>ROUND(F18,0)</f>
         <v>788</v>
       </c>
       <c r="G30">
-        <f t="shared" si="24"/>
+        <f>ROUND(G18,0)</f>
         <v>835</v>
       </c>
       <c r="H30">
-        <f t="shared" si="24"/>
+        <f>ROUND(H18,0)</f>
         <v>885</v>
       </c>
       <c r="I30">
-        <f t="shared" si="24"/>
+        <f>ROUND(I18,0)</f>
         <v>937</v>
       </c>
       <c r="J30">
-        <f t="shared" si="24"/>
+        <f>ROUND(J18,0)</f>
         <v>993</v>
       </c>
       <c r="K30">
-        <f t="shared" si="24"/>
+        <f>ROUND(K18,0)</f>
         <v>1052</v>
       </c>
       <c r="L30">
-        <f t="shared" si="24"/>
+        <f>ROUND(L18,0)</f>
         <v>1115</v>
       </c>
       <c r="M30">
-        <f t="shared" si="24"/>
+        <f>ROUND(M18,0)</f>
         <v>1181</v>
       </c>
       <c r="N30">
-        <f t="shared" si="24"/>
+        <f>ROUND(N18,0)</f>
         <v>1251</v>
       </c>
       <c r="O30">
-        <f t="shared" si="24"/>
+        <f>ROUND(O18,0)</f>
         <v>1326</v>
       </c>
     </row>
@@ -1585,51 +1677,51 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:O31" si="25">ROUND(D19,0)</f>
+        <f>ROUND(D19,0)</f>
         <v>1405</v>
       </c>
       <c r="E31">
-        <f t="shared" si="25"/>
+        <f>ROUND(E19,0)</f>
         <v>1488</v>
       </c>
       <c r="F31">
-        <f t="shared" si="25"/>
+        <f>ROUND(F19,0)</f>
         <v>1577</v>
       </c>
       <c r="G31">
-        <f t="shared" si="25"/>
+        <f>ROUND(G19,0)</f>
         <v>1670</v>
       </c>
       <c r="H31">
-        <f t="shared" si="25"/>
+        <f>ROUND(H19,0)</f>
         <v>1770</v>
       </c>
       <c r="I31">
-        <f t="shared" si="25"/>
+        <f>ROUND(I19,0)</f>
         <v>1875</v>
       </c>
       <c r="J31">
-        <f t="shared" si="25"/>
+        <f>ROUND(J19,0)</f>
         <v>1986</v>
       </c>
       <c r="K31">
-        <f t="shared" si="25"/>
+        <f>ROUND(K19,0)</f>
         <v>2105</v>
       </c>
       <c r="L31">
-        <f t="shared" si="25"/>
+        <f>ROUND(L19,0)</f>
         <v>2230</v>
       </c>
       <c r="M31">
-        <f t="shared" si="25"/>
+        <f>ROUND(M19,0)</f>
         <v>2362</v>
       </c>
       <c r="N31">
-        <f t="shared" si="25"/>
+        <f>ROUND(N19,0)</f>
         <v>2503</v>
       </c>
       <c r="O31">
-        <f t="shared" si="25"/>
+        <f>ROUND(O19,0)</f>
         <v>2652</v>
       </c>
     </row>
@@ -1638,51 +1730,51 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:O32" si="26">ROUND(D20,0)</f>
+        <f>ROUND(D20,0)</f>
         <v>2809</v>
       </c>
       <c r="E32">
-        <f t="shared" si="26"/>
+        <f>ROUND(E20,0)</f>
         <v>2976</v>
       </c>
       <c r="F32">
-        <f t="shared" si="26"/>
+        <f>ROUND(F20,0)</f>
         <v>3153</v>
       </c>
       <c r="G32">
-        <f t="shared" si="26"/>
+        <f>ROUND(G20,0)</f>
         <v>3341</v>
       </c>
       <c r="H32">
-        <f t="shared" si="26"/>
+        <f>ROUND(H20,0)</f>
         <v>3539</v>
       </c>
       <c r="I32">
-        <f t="shared" si="26"/>
+        <f>ROUND(I20,0)</f>
         <v>3750</v>
       </c>
       <c r="J32">
-        <f t="shared" si="26"/>
+        <f>ROUND(J20,0)</f>
         <v>3973</v>
       </c>
       <c r="K32">
-        <f t="shared" si="26"/>
+        <f>ROUND(K20,0)</f>
         <v>4209</v>
       </c>
       <c r="L32">
-        <f t="shared" si="26"/>
+        <f>ROUND(L20,0)</f>
         <v>4459</v>
       </c>
       <c r="M32">
-        <f t="shared" si="26"/>
+        <f>ROUND(M20,0)</f>
         <v>4724</v>
       </c>
       <c r="N32">
-        <f t="shared" si="26"/>
+        <f>ROUND(N20,0)</f>
         <v>5005</v>
       </c>
       <c r="O32">
-        <f t="shared" si="26"/>
+        <f>ROUND(O20,0)</f>
         <v>5303</v>
       </c>
     </row>
@@ -1691,51 +1783,51 @@
         <v>3</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33:O33" si="27">ROUND(D21,0)</f>
+        <f>ROUND(D21,0)</f>
         <v>5619</v>
       </c>
       <c r="E33">
-        <f t="shared" si="27"/>
+        <f>ROUND(E21,0)</f>
         <v>5952</v>
       </c>
       <c r="F33">
-        <f t="shared" si="27"/>
+        <f>ROUND(F21,0)</f>
         <v>6306</v>
       </c>
       <c r="G33">
-        <f t="shared" si="27"/>
+        <f>ROUND(G21,0)</f>
         <v>6681</v>
       </c>
       <c r="H33">
-        <f t="shared" si="27"/>
+        <f>ROUND(H21,0)</f>
         <v>7079</v>
       </c>
       <c r="I33">
-        <f t="shared" si="27"/>
+        <f>ROUND(I21,0)</f>
         <v>7500</v>
       </c>
       <c r="J33">
-        <f t="shared" si="27"/>
+        <f>ROUND(J21,0)</f>
         <v>7946</v>
       </c>
       <c r="K33">
-        <f t="shared" si="27"/>
+        <f>ROUND(K21,0)</f>
         <v>8418</v>
       </c>
       <c r="L33">
-        <f t="shared" si="27"/>
+        <f>ROUND(L21,0)</f>
         <v>8919</v>
       </c>
       <c r="M33">
-        <f t="shared" si="27"/>
+        <f>ROUND(M21,0)</f>
         <v>9449</v>
       </c>
       <c r="N33">
-        <f t="shared" si="27"/>
+        <f>ROUND(N21,0)</f>
         <v>10011</v>
       </c>
       <c r="O33">
-        <f t="shared" si="27"/>
+        <f>ROUND(O21,0)</f>
         <v>10606</v>
       </c>
     </row>
@@ -1744,51 +1836,51 @@
         <v>4</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:O34" si="28">ROUND(D22,0)</f>
+        <f>ROUND(D22,0)</f>
         <v>11237</v>
       </c>
       <c r="E34">
-        <f t="shared" si="28"/>
+        <f>ROUND(E22,0)</f>
         <v>11905</v>
       </c>
       <c r="F34">
-        <f t="shared" si="28"/>
+        <f>ROUND(F22,0)</f>
         <v>12613</v>
       </c>
       <c r="G34">
-        <f t="shared" si="28"/>
+        <f>ROUND(G22,0)</f>
         <v>13363</v>
       </c>
       <c r="H34">
-        <f t="shared" si="28"/>
+        <f>ROUND(H22,0)</f>
         <v>14158</v>
       </c>
       <c r="I34">
-        <f t="shared" si="28"/>
+        <f>ROUND(I22,0)</f>
         <v>14999</v>
       </c>
       <c r="J34">
-        <f t="shared" si="28"/>
+        <f>ROUND(J22,0)</f>
         <v>15891</v>
       </c>
       <c r="K34">
-        <f t="shared" si="28"/>
+        <f>ROUND(K22,0)</f>
         <v>16836</v>
       </c>
       <c r="L34">
-        <f t="shared" si="28"/>
+        <f>ROUND(L22,0)</f>
         <v>17838</v>
       </c>
       <c r="M34">
-        <f t="shared" si="28"/>
+        <f>ROUND(M22,0)</f>
         <v>18898</v>
       </c>
       <c r="N34">
-        <f t="shared" si="28"/>
+        <f>ROUND(N22,0)</f>
         <v>20021</v>
       </c>
       <c r="O34">
-        <f t="shared" si="28"/>
+        <f>ROUND(O22,0)</f>
         <v>21212</v>
       </c>
     </row>
@@ -1797,51 +1889,51 @@
         <v>5</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35:O35" si="29">ROUND(D23,0)</f>
+        <f>ROUND(D23,0)</f>
         <v>22474</v>
       </c>
       <c r="E35">
-        <f t="shared" si="29"/>
+        <f>ROUND(E23,0)</f>
         <v>23810</v>
       </c>
       <c r="F35">
-        <f t="shared" si="29"/>
+        <f>ROUND(F23,0)</f>
         <v>25226</v>
       </c>
       <c r="G35">
-        <f t="shared" si="29"/>
+        <f>ROUND(G23,0)</f>
         <v>26725</v>
       </c>
       <c r="H35">
-        <f t="shared" si="29"/>
+        <f>ROUND(H23,0)</f>
         <v>28315</v>
       </c>
       <c r="I35">
-        <f t="shared" si="29"/>
+        <f>ROUND(I23,0)</f>
         <v>29999</v>
       </c>
       <c r="J35">
-        <f t="shared" si="29"/>
+        <f>ROUND(J23,0)</f>
         <v>31783</v>
       </c>
       <c r="K35">
-        <f t="shared" si="29"/>
+        <f>ROUND(K23,0)</f>
         <v>33673</v>
       </c>
       <c r="L35">
-        <f t="shared" si="29"/>
+        <f>ROUND(L23,0)</f>
         <v>35675</v>
       </c>
       <c r="M35">
-        <f t="shared" si="29"/>
+        <f>ROUND(M23,0)</f>
         <v>37796</v>
       </c>
       <c r="N35">
-        <f t="shared" si="29"/>
+        <f>ROUND(N23,0)</f>
         <v>40043</v>
       </c>
       <c r="O35">
-        <f t="shared" si="29"/>
+        <f>ROUND(O23,0)</f>
         <v>42425</v>
       </c>
     </row>
@@ -1850,51 +1942,51 @@
         <v>6</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:O36" si="30">ROUND(D24,0)</f>
+        <f>ROUND(D24,0)</f>
         <v>44948</v>
       </c>
       <c r="E36">
-        <f t="shared" si="30"/>
+        <f>ROUND(E24,0)</f>
         <v>47620</v>
       </c>
       <c r="F36">
-        <f t="shared" si="30"/>
+        <f>ROUND(F24,0)</f>
         <v>50451</v>
       </c>
       <c r="G36">
-        <f t="shared" si="30"/>
+        <f>ROUND(G24,0)</f>
         <v>53450</v>
       </c>
       <c r="H36">
-        <f t="shared" si="30"/>
+        <f>ROUND(H24,0)</f>
         <v>56630</v>
       </c>
       <c r="I36">
-        <f t="shared" si="30"/>
+        <f>ROUND(I24,0)</f>
         <v>59998</v>
       </c>
       <c r="J36">
-        <f t="shared" si="30"/>
+        <f>ROUND(J24,0)</f>
         <v>63566</v>
       </c>
       <c r="K36">
-        <f t="shared" si="30"/>
+        <f>ROUND(K24,0)</f>
         <v>67345</v>
       </c>
       <c r="L36">
-        <f t="shared" si="30"/>
+        <f>ROUND(L24,0)</f>
         <v>71350</v>
       </c>
       <c r="M36">
-        <f t="shared" si="30"/>
+        <f>ROUND(M24,0)</f>
         <v>75591</v>
       </c>
       <c r="N36">
-        <f t="shared" si="30"/>
+        <f>ROUND(N24,0)</f>
         <v>80086</v>
       </c>
       <c r="O36">
-        <f t="shared" si="30"/>
+        <f>ROUND(O24,0)</f>
         <v>84849</v>
       </c>
     </row>
@@ -1903,51 +1995,51 @@
         <v>7</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:O37" si="31">ROUND(D25,0)</f>
+        <f>ROUND(D25,0)</f>
         <v>89896</v>
       </c>
       <c r="E37">
-        <f t="shared" si="31"/>
+        <f>ROUND(E25,0)</f>
         <v>95240</v>
       </c>
       <c r="F37">
-        <f t="shared" si="31"/>
+        <f>ROUND(F25,0)</f>
         <v>100902</v>
       </c>
       <c r="G37">
-        <f t="shared" si="31"/>
+        <f>ROUND(G25,0)</f>
         <v>106900</v>
       </c>
       <c r="H37">
-        <f t="shared" si="31"/>
+        <f>ROUND(H25,0)</f>
         <v>113261</v>
       </c>
       <c r="I37">
-        <f t="shared" si="31"/>
+        <f>ROUND(I25,0)</f>
         <v>119995</v>
       </c>
       <c r="J37">
-        <f t="shared" si="31"/>
+        <f>ROUND(J25,0)</f>
         <v>127131</v>
       </c>
       <c r="K37">
-        <f t="shared" si="31"/>
+        <f>ROUND(K25,0)</f>
         <v>134690</v>
       </c>
       <c r="L37">
-        <f t="shared" si="31"/>
+        <f>ROUND(L25,0)</f>
         <v>142700</v>
       </c>
       <c r="M37">
-        <f t="shared" si="31"/>
+        <f>ROUND(M25,0)</f>
         <v>151183</v>
       </c>
       <c r="N37">
-        <f t="shared" si="31"/>
+        <f>ROUND(N25,0)</f>
         <v>160171</v>
       </c>
       <c r="O37">
-        <f t="shared" si="31"/>
+        <f>ROUND(O25,0)</f>
         <v>169699</v>
       </c>
     </row>
@@ -1956,51 +2048,51 @@
         <v>8</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38:O38" si="32">ROUND(D26,0)</f>
+        <f>ROUND(D26,0)</f>
         <v>179792</v>
       </c>
       <c r="E38">
-        <f t="shared" si="32"/>
+        <f>ROUND(E26,0)</f>
         <v>190479</v>
       </c>
       <c r="F38">
-        <f t="shared" si="32"/>
+        <f>ROUND(F26,0)</f>
         <v>201804</v>
       </c>
       <c r="G38">
-        <f t="shared" si="32"/>
+        <f>ROUND(G26,0)</f>
         <v>213800</v>
       </c>
       <c r="H38">
-        <f t="shared" si="32"/>
+        <f>ROUND(H26,0)</f>
         <v>226521</v>
       </c>
       <c r="I38">
-        <f t="shared" si="32"/>
+        <f>ROUND(I26,0)</f>
         <v>239990</v>
       </c>
       <c r="J38">
-        <f t="shared" si="32"/>
+        <f>ROUND(J26,0)</f>
         <v>254262</v>
       </c>
       <c r="K38">
-        <f t="shared" si="32"/>
+        <f>ROUND(K26,0)</f>
         <v>269380</v>
       </c>
       <c r="L38">
-        <f t="shared" si="32"/>
+        <f>ROUND(L26,0)</f>
         <v>285400</v>
       </c>
       <c r="M38">
-        <f t="shared" si="32"/>
+        <f>ROUND(M26,0)</f>
         <v>302366</v>
       </c>
       <c r="N38">
-        <f t="shared" si="32"/>
+        <f>ROUND(N26,0)</f>
         <v>320343</v>
       </c>
       <c r="O38">
-        <f t="shared" si="32"/>
+        <f>ROUND(O26,0)</f>
         <v>339397</v>
       </c>
     </row>
@@ -2013,51 +2105,54 @@
         <v>359584</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39:O39" si="33">ROUND(E27,0)</f>
+        <f>ROUND(E27,0)</f>
         <v>380959</v>
       </c>
       <c r="F39">
-        <f t="shared" si="33"/>
+        <f>ROUND(F27,0)</f>
         <v>403609</v>
       </c>
       <c r="G39">
-        <f t="shared" si="33"/>
+        <f>ROUND(G27,0)</f>
         <v>427600</v>
       </c>
       <c r="H39">
-        <f t="shared" si="33"/>
+        <f>ROUND(H27,0)</f>
         <v>453043</v>
       </c>
       <c r="I39">
-        <f t="shared" si="33"/>
+        <f>ROUND(I27,0)</f>
         <v>479981</v>
       </c>
       <c r="J39">
-        <f t="shared" si="33"/>
+        <f>ROUND(J27,0)</f>
         <v>508524</v>
       </c>
       <c r="K39">
-        <f t="shared" si="33"/>
+        <f>ROUND(K27,0)</f>
         <v>538761</v>
       </c>
       <c r="L39">
-        <f t="shared" si="33"/>
+        <f>ROUND(L27,0)</f>
         <v>570800</v>
       </c>
       <c r="M39">
-        <f t="shared" si="33"/>
+        <f>ROUND(M27,0)</f>
         <v>604731</v>
       </c>
       <c r="N39">
-        <f t="shared" si="33"/>
+        <f>ROUND(N27,0)</f>
         <v>640685</v>
       </c>
       <c r="O39">
-        <f t="shared" si="33"/>
+        <f>ROUND(O27,0)</f>
         <v>678794</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Designs\Diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105105AE-5A5E-49E9-AD4C-69C1E657C014}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0CBF07-B745-4693-A73C-FD66E0BE4777}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{D1CFD8B2-492F-4A7C-A0B0-7AAEEEEDCE0B}"/>
+    <workbookView xWindow="-8745" yWindow="1845" windowWidth="16200" windowHeight="9360" xr2:uid="{D1CFD8B2-492F-4A7C-A0B0-7AAEEEEDCE0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,11 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -512,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB51723-A4A2-4B7B-A33B-2358027C38E0}">
   <dimension ref="C4:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:O39"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,502 +1085,502 @@
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D18">
-        <f>D5*(2^31) / 50000000</f>
-        <v>702.31305224191999</v>
+        <f>D5*(2^32) / 50000000</f>
+        <v>1404.62610448384</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18:O18" si="13">E5*(2^31) / 50000000</f>
-        <v>744.06013435904003</v>
+        <f t="shared" ref="E18:O18" si="13">E5*(2^32) / 50000000</f>
+        <v>1488.1202687180801</v>
       </c>
       <c r="F18">
         <f t="shared" si="13"/>
-        <v>788.29829750783995</v>
+        <v>1576.5965950156799</v>
       </c>
       <c r="G18">
         <f t="shared" si="13"/>
-        <v>835.15639070719999</v>
+        <v>1670.3127814144</v>
       </c>
       <c r="H18">
         <f t="shared" si="13"/>
-        <v>884.84916232192006</v>
+        <v>1769.6983246438401</v>
       </c>
       <c r="I18">
         <f t="shared" si="13"/>
-        <v>937.46251169792004</v>
+        <v>1874.9250233958401</v>
       </c>
       <c r="J18">
         <f t="shared" si="13"/>
-        <v>993.21118720000004</v>
+        <v>1986.4223744000001</v>
       </c>
       <c r="K18">
         <f t="shared" si="13"/>
-        <v>1052.2669875199999</v>
+        <v>2104.5339750399999</v>
       </c>
       <c r="L18">
         <f t="shared" si="13"/>
-        <v>1114.8446610227199</v>
+        <v>2229.6893220454399</v>
       </c>
       <c r="M18">
         <f t="shared" si="13"/>
-        <v>1181.1160064000001</v>
+        <v>2362.2320128000001</v>
       </c>
       <c r="N18">
         <f t="shared" si="13"/>
-        <v>1251.3387216896001</v>
+        <v>2502.6774433792002</v>
       </c>
       <c r="O18">
         <f t="shared" si="13"/>
-        <v>1325.7705049292799</v>
+        <v>2651.5410098585598</v>
       </c>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D19">
-        <f t="shared" ref="D19:O19" si="14">D6*(2^31) / 50000000</f>
-        <v>1404.62610448384</v>
+        <f t="shared" ref="D19:O19" si="14">D6*(2^32) / 50000000</f>
+        <v>2809.25220896768</v>
       </c>
       <c r="E19">
         <f t="shared" si="14"/>
-        <v>1488.1202687180801</v>
+        <v>2976.2405374361601</v>
       </c>
       <c r="F19">
         <f t="shared" si="14"/>
-        <v>1576.5965950156799</v>
+        <v>3153.1931900313598</v>
       </c>
       <c r="G19">
         <f t="shared" si="14"/>
-        <v>1670.3127814144</v>
+        <v>3340.6255628288</v>
       </c>
       <c r="H19">
         <f t="shared" si="14"/>
-        <v>1769.6983246438401</v>
+        <v>3539.3966492876802</v>
       </c>
       <c r="I19">
         <f t="shared" si="14"/>
-        <v>1874.9250233958401</v>
+        <v>3749.8500467916801</v>
       </c>
       <c r="J19">
         <f t="shared" si="14"/>
-        <v>1986.4223744000001</v>
+        <v>3972.8447488000002</v>
       </c>
       <c r="K19">
         <f t="shared" si="14"/>
-        <v>2104.5339750399999</v>
+        <v>4209.0679500799997</v>
       </c>
       <c r="L19">
         <f t="shared" si="14"/>
-        <v>2229.6893220454399</v>
+        <v>4459.3786440908798</v>
       </c>
       <c r="M19">
         <f t="shared" si="14"/>
-        <v>2362.2320128000001</v>
+        <v>4724.4640256000002</v>
       </c>
       <c r="N19">
         <f t="shared" si="14"/>
-        <v>2502.6774433792002</v>
+        <v>5005.3548867584004</v>
       </c>
       <c r="O19">
         <f t="shared" si="14"/>
-        <v>2651.5410098585598</v>
+        <v>5303.0820197171197</v>
       </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D20">
-        <f t="shared" ref="D20:O20" si="15">D7*(2^31) / 50000000</f>
-        <v>2809.25220896768</v>
+        <f t="shared" ref="D20:O20" si="15">D7*(2^32) / 50000000</f>
+        <v>5618.5044179353599</v>
       </c>
       <c r="E20">
         <f t="shared" si="15"/>
-        <v>2976.2405374361601</v>
+        <v>5952.4810748723203</v>
       </c>
       <c r="F20">
         <f t="shared" si="15"/>
-        <v>3153.1931900313598</v>
+        <v>6306.3863800627196</v>
       </c>
       <c r="G20">
         <f t="shared" si="15"/>
-        <v>3340.6255628288</v>
+        <v>6681.2511256575999</v>
       </c>
       <c r="H20">
         <f t="shared" si="15"/>
-        <v>3539.3966492876802</v>
+        <v>7078.7932985753605</v>
       </c>
       <c r="I20">
         <f t="shared" si="15"/>
-        <v>3749.8500467916801</v>
+        <v>7499.7000935833603</v>
       </c>
       <c r="J20">
         <f t="shared" si="15"/>
-        <v>3972.8447488000002</v>
+        <v>7945.6894976000003</v>
       </c>
       <c r="K20">
         <f t="shared" si="15"/>
-        <v>4209.0679500799997</v>
+        <v>8418.1359001599994</v>
       </c>
       <c r="L20">
         <f t="shared" si="15"/>
-        <v>4459.3786440908798</v>
+        <v>8918.7572881817596</v>
       </c>
       <c r="M20">
         <f t="shared" si="15"/>
-        <v>4724.4640256000002</v>
+        <v>9448.9280512000005</v>
       </c>
       <c r="N20">
         <f t="shared" si="15"/>
-        <v>5005.3548867584004</v>
+        <v>10010.709773516801</v>
       </c>
       <c r="O20">
         <f t="shared" si="15"/>
-        <v>5303.0820197171197</v>
+        <v>10606.164039434239</v>
       </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D21">
-        <f t="shared" ref="D21:O21" si="16">D8*(2^31) / 50000000</f>
-        <v>5618.5044179353599</v>
+        <f t="shared" ref="D21:O21" si="16">D8*(2^32) / 50000000</f>
+        <v>11237.00883587072</v>
       </c>
       <c r="E21">
         <f t="shared" si="16"/>
-        <v>5952.4810748723203</v>
+        <v>11904.962149744641</v>
       </c>
       <c r="F21">
         <f t="shared" si="16"/>
-        <v>6306.3863800627196</v>
+        <v>12612.772760125439</v>
       </c>
       <c r="G21">
         <f t="shared" si="16"/>
-        <v>6681.2511256575999</v>
+        <v>13362.5022513152</v>
       </c>
       <c r="H21">
         <f t="shared" si="16"/>
-        <v>7078.7932985753605</v>
+        <v>14157.586597150721</v>
       </c>
       <c r="I21">
         <f t="shared" si="16"/>
-        <v>7499.7000935833603</v>
+        <v>14999.400187166721</v>
       </c>
       <c r="J21">
         <f t="shared" si="16"/>
-        <v>7945.6894976000003</v>
+        <v>15891.378995200001</v>
       </c>
       <c r="K21">
         <f t="shared" si="16"/>
-        <v>8418.1359001599994</v>
+        <v>16836.271800319999</v>
       </c>
       <c r="L21">
         <f t="shared" si="16"/>
-        <v>8918.7572881817596</v>
+        <v>17837.514576363519</v>
       </c>
       <c r="M21">
         <f t="shared" si="16"/>
-        <v>9448.9280512000005</v>
+        <v>18897.856102400001</v>
       </c>
       <c r="N21">
         <f t="shared" si="16"/>
-        <v>10010.709773516801</v>
+        <v>20021.419547033602</v>
       </c>
       <c r="O21">
         <f t="shared" si="16"/>
-        <v>10606.164039434239</v>
+        <v>21212.328078868479</v>
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D22">
-        <f t="shared" ref="D22:O22" si="17">D9*(2^31) / 50000000</f>
-        <v>11237.00883587072</v>
+        <f t="shared" ref="D22:O22" si="17">D9*(2^32) / 50000000</f>
+        <v>22474.01767174144</v>
       </c>
       <c r="E22">
         <f t="shared" si="17"/>
-        <v>11904.962149744641</v>
+        <v>23809.924299489281</v>
       </c>
       <c r="F22">
         <f t="shared" si="17"/>
-        <v>12612.772760125439</v>
+        <v>25225.545520250878</v>
       </c>
       <c r="G22">
         <f t="shared" si="17"/>
-        <v>13362.5022513152</v>
+        <v>26725.0045026304</v>
       </c>
       <c r="H22">
         <f t="shared" si="17"/>
-        <v>14157.586597150721</v>
+        <v>28315.173194301442</v>
       </c>
       <c r="I22">
         <f t="shared" si="17"/>
-        <v>14999.400187166721</v>
+        <v>29998.800374333441</v>
       </c>
       <c r="J22">
         <f t="shared" si="17"/>
-        <v>15891.378995200001</v>
+        <v>31782.757990400001</v>
       </c>
       <c r="K22">
         <f t="shared" si="17"/>
-        <v>16836.271800319999</v>
+        <v>33672.543600639998</v>
       </c>
       <c r="L22">
         <f t="shared" si="17"/>
-        <v>17837.514576363519</v>
+        <v>35675.029152727038</v>
       </c>
       <c r="M22">
         <f t="shared" si="17"/>
-        <v>18897.856102400001</v>
+        <v>37795.712204800002</v>
       </c>
       <c r="N22">
         <f t="shared" si="17"/>
-        <v>20021.419547033602</v>
+        <v>40042.839094067203</v>
       </c>
       <c r="O22">
         <f t="shared" si="17"/>
-        <v>21212.328078868479</v>
+        <v>42424.656157736958</v>
       </c>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D23">
-        <f t="shared" ref="D23:O23" si="18">D10*(2^31) / 50000000</f>
-        <v>22474.01767174144</v>
+        <f t="shared" ref="D23:O23" si="18">D10*(2^32) / 50000000</f>
+        <v>44948.035343482879</v>
       </c>
       <c r="E23">
         <f t="shared" si="18"/>
-        <v>23809.924299489281</v>
+        <v>47619.848598978562</v>
       </c>
       <c r="F23">
         <f t="shared" si="18"/>
-        <v>25225.545520250878</v>
+        <v>50451.091040501757</v>
       </c>
       <c r="G23">
         <f t="shared" si="18"/>
-        <v>26725.0045026304</v>
+        <v>53450.009005260799</v>
       </c>
       <c r="H23">
         <f t="shared" si="18"/>
-        <v>28315.173194301442</v>
+        <v>56630.346388602884</v>
       </c>
       <c r="I23">
         <f t="shared" si="18"/>
-        <v>29998.800374333441</v>
+        <v>59997.600748666882</v>
       </c>
       <c r="J23">
         <f t="shared" si="18"/>
-        <v>31782.757990400001</v>
+        <v>63565.515980800003</v>
       </c>
       <c r="K23">
         <f t="shared" si="18"/>
-        <v>33672.543600639998</v>
+        <v>67345.087201279995</v>
       </c>
       <c r="L23">
         <f t="shared" si="18"/>
-        <v>35675.029152727038</v>
+        <v>71350.058305454077</v>
       </c>
       <c r="M23">
         <f t="shared" si="18"/>
-        <v>37795.712204800002</v>
+        <v>75591.424409600004</v>
       </c>
       <c r="N23">
         <f t="shared" si="18"/>
-        <v>40042.839094067203</v>
+        <v>80085.678188134407</v>
       </c>
       <c r="O23">
         <f t="shared" si="18"/>
-        <v>42424.656157736958</v>
+        <v>84849.312315473915</v>
       </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D24">
-        <f t="shared" ref="D24:O24" si="19">D11*(2^31) / 50000000</f>
-        <v>44948.035343482879</v>
+        <f t="shared" ref="D24:O24" si="19">D11*(2^32) / 50000000</f>
+        <v>89896.070686965759</v>
       </c>
       <c r="E24">
-        <f>E11*(2^31) / 50000000</f>
-        <v>47619.848598978562</v>
+        <f t="shared" si="19"/>
+        <v>95239.697197957124</v>
       </c>
       <c r="F24">
         <f t="shared" si="19"/>
-        <v>50451.091040501757</v>
+        <v>100902.18208100351</v>
       </c>
       <c r="G24">
         <f t="shared" si="19"/>
-        <v>53450.009005260799</v>
+        <v>106900.0180105216</v>
       </c>
       <c r="H24">
         <f t="shared" si="19"/>
-        <v>56630.346388602884</v>
+        <v>113260.69277720577</v>
       </c>
       <c r="I24">
         <f t="shared" si="19"/>
-        <v>59997.600748666882</v>
+        <v>119995.20149733376</v>
       </c>
       <c r="J24">
         <f t="shared" si="19"/>
-        <v>63565.515980800003</v>
+        <v>127131.03196160001</v>
       </c>
       <c r="K24">
         <f t="shared" si="19"/>
-        <v>67345.087201279995</v>
+        <v>134690.17440255999</v>
       </c>
       <c r="L24">
         <f t="shared" si="19"/>
-        <v>71350.058305454077</v>
+        <v>142700.11661090815</v>
       </c>
       <c r="M24">
         <f t="shared" si="19"/>
-        <v>75591.424409600004</v>
+        <v>151182.84881920001</v>
       </c>
       <c r="N24">
         <f t="shared" si="19"/>
-        <v>80085.678188134407</v>
+        <v>160171.35637626881</v>
       </c>
       <c r="O24">
         <f t="shared" si="19"/>
-        <v>84849.312315473915</v>
+        <v>169698.62463094783</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D25">
-        <f t="shared" ref="D25:O25" si="20">D12*(2^31) / 50000000</f>
-        <v>89896.070686965759</v>
+        <f t="shared" ref="D25:O25" si="20">D12*(2^32) / 50000000</f>
+        <v>179792.14137393152</v>
       </c>
       <c r="E25">
         <f t="shared" si="20"/>
-        <v>95239.697197957124</v>
+        <v>190479.39439591425</v>
       </c>
       <c r="F25">
         <f t="shared" si="20"/>
-        <v>100902.18208100351</v>
+        <v>201804.36416200703</v>
       </c>
       <c r="G25">
         <f t="shared" si="20"/>
-        <v>106900.0180105216</v>
+        <v>213800.0360210432</v>
       </c>
       <c r="H25">
         <f t="shared" si="20"/>
-        <v>113260.69277720577</v>
+        <v>226521.38555441154</v>
       </c>
       <c r="I25">
         <f t="shared" si="20"/>
-        <v>119995.20149733376</v>
+        <v>239990.40299466753</v>
       </c>
       <c r="J25">
         <f t="shared" si="20"/>
-        <v>127131.03196160001</v>
+        <v>254262.06392320001</v>
       </c>
       <c r="K25">
         <f t="shared" si="20"/>
-        <v>134690.17440255999</v>
+        <v>269380.34880511998</v>
       </c>
       <c r="L25">
         <f t="shared" si="20"/>
-        <v>142700.11661090815</v>
+        <v>285400.23322181631</v>
       </c>
       <c r="M25">
         <f t="shared" si="20"/>
-        <v>151182.84881920001</v>
+        <v>302365.69763840002</v>
       </c>
       <c r="N25">
         <f t="shared" si="20"/>
-        <v>160171.35637626881</v>
+        <v>320342.71275253763</v>
       </c>
       <c r="O25">
         <f t="shared" si="20"/>
-        <v>169698.62463094783</v>
+        <v>339397.24926189566</v>
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D26">
-        <f t="shared" ref="D26:H27" si="21">D13*(2^31) / 50000000</f>
-        <v>179792.14137393152</v>
+        <f t="shared" ref="D26:O26" si="21">D13*(2^32) / 50000000</f>
+        <v>359584.28274786304</v>
       </c>
       <c r="E26">
         <f t="shared" si="21"/>
-        <v>190479.39439591425</v>
+        <v>380958.7887918285</v>
       </c>
       <c r="F26">
         <f t="shared" si="21"/>
-        <v>201804.36416200703</v>
+        <v>403608.72832401405</v>
       </c>
       <c r="G26">
         <f t="shared" si="21"/>
-        <v>213800.0360210432</v>
+        <v>427600.07204208639</v>
       </c>
       <c r="H26">
         <f t="shared" si="21"/>
-        <v>226521.38555441154</v>
+        <v>453042.77110882307</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I26:O26" si="22">I13*(2^31) / 50000000</f>
-        <v>239990.40299466753</v>
+        <f t="shared" si="21"/>
+        <v>479980.80598933506</v>
       </c>
       <c r="J26">
-        <f t="shared" si="22"/>
-        <v>254262.06392320001</v>
+        <f t="shared" si="21"/>
+        <v>508524.12784640002</v>
       </c>
       <c r="K26">
-        <f t="shared" si="22"/>
-        <v>269380.34880511998</v>
+        <f t="shared" si="21"/>
+        <v>538760.69761023996</v>
       </c>
       <c r="L26">
-        <f t="shared" si="22"/>
-        <v>285400.23322181631</v>
+        <f t="shared" si="21"/>
+        <v>570800.46644363261</v>
       </c>
       <c r="M26">
-        <f t="shared" si="22"/>
-        <v>302365.69763840002</v>
+        <f t="shared" si="21"/>
+        <v>604731.39527680003</v>
       </c>
       <c r="N26">
-        <f t="shared" si="22"/>
-        <v>320342.71275253763</v>
+        <f t="shared" si="21"/>
+        <v>640685.42550507525</v>
       </c>
       <c r="O26">
-        <f t="shared" si="22"/>
-        <v>339397.24926189566</v>
+        <f t="shared" si="21"/>
+        <v>678794.49852379132</v>
       </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D27">
-        <f t="shared" si="21"/>
-        <v>359584.28274786304</v>
+        <f t="shared" ref="D27:O27" si="22">D14*(2^32) / 50000000</f>
+        <v>719168.56549572607</v>
       </c>
       <c r="E27">
-        <f t="shared" si="21"/>
-        <v>380958.7887918285</v>
+        <f t="shared" si="22"/>
+        <v>761917.577583657</v>
       </c>
       <c r="F27">
-        <f t="shared" si="21"/>
-        <v>403608.72832401405</v>
+        <f t="shared" si="22"/>
+        <v>807217.45664802811</v>
       </c>
       <c r="G27">
-        <f t="shared" si="21"/>
-        <v>427600.07204208639</v>
+        <f t="shared" si="22"/>
+        <v>855200.14408417279</v>
       </c>
       <c r="H27">
-        <f t="shared" si="21"/>
-        <v>453042.77110882307</v>
+        <f t="shared" si="22"/>
+        <v>906085.54221764614</v>
       </c>
       <c r="I27">
-        <f t="shared" ref="I27:O27" si="23">I14*(2^31) / 50000000</f>
-        <v>479980.80598933506</v>
+        <f t="shared" si="22"/>
+        <v>959961.61197867012</v>
       </c>
       <c r="J27">
-        <f t="shared" si="23"/>
-        <v>508524.12784640002</v>
+        <f t="shared" si="22"/>
+        <v>1017048.2556928</v>
       </c>
       <c r="K27">
-        <f t="shared" si="23"/>
-        <v>538760.69761023996</v>
+        <f t="shared" si="22"/>
+        <v>1077521.3952204799</v>
       </c>
       <c r="L27">
-        <f t="shared" si="23"/>
-        <v>570800.46644363261</v>
+        <f t="shared" si="22"/>
+        <v>1141600.9328872652</v>
       </c>
       <c r="M27">
-        <f t="shared" si="23"/>
-        <v>604731.39527680003</v>
+        <f t="shared" si="22"/>
+        <v>1209462.7905536001</v>
       </c>
       <c r="N27">
-        <f t="shared" si="23"/>
-        <v>640685.42550507525</v>
+        <f t="shared" si="22"/>
+        <v>1281370.8510101505</v>
       </c>
       <c r="O27">
-        <f t="shared" si="23"/>
-        <v>678794.49852379132</v>
+        <f t="shared" si="22"/>
+        <v>1357588.9970475826</v>
       </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
@@ -1624,52 +1629,52 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <f>ROUND(D18,0)</f>
-        <v>702</v>
+        <f t="shared" ref="D30:O30" si="23">ROUND(D18,0)</f>
+        <v>1405</v>
       </c>
       <c r="E30">
-        <f>ROUND(E18,0)</f>
-        <v>744</v>
+        <f t="shared" si="23"/>
+        <v>1488</v>
       </c>
       <c r="F30">
-        <f>ROUND(F18,0)</f>
-        <v>788</v>
+        <f t="shared" si="23"/>
+        <v>1577</v>
       </c>
       <c r="G30">
-        <f>ROUND(G18,0)</f>
-        <v>835</v>
+        <f t="shared" si="23"/>
+        <v>1670</v>
       </c>
       <c r="H30">
-        <f>ROUND(H18,0)</f>
-        <v>885</v>
+        <f t="shared" si="23"/>
+        <v>1770</v>
       </c>
       <c r="I30">
-        <f>ROUND(I18,0)</f>
-        <v>937</v>
+        <f t="shared" si="23"/>
+        <v>1875</v>
       </c>
       <c r="J30">
-        <f>ROUND(J18,0)</f>
-        <v>993</v>
+        <f t="shared" si="23"/>
+        <v>1986</v>
       </c>
       <c r="K30">
-        <f>ROUND(K18,0)</f>
-        <v>1052</v>
+        <f t="shared" si="23"/>
+        <v>2105</v>
       </c>
       <c r="L30">
-        <f>ROUND(L18,0)</f>
-        <v>1115</v>
+        <f t="shared" si="23"/>
+        <v>2230</v>
       </c>
       <c r="M30">
-        <f>ROUND(M18,0)</f>
-        <v>1181</v>
+        <f t="shared" si="23"/>
+        <v>2362</v>
       </c>
       <c r="N30">
-        <f>ROUND(N18,0)</f>
-        <v>1251</v>
+        <f t="shared" si="23"/>
+        <v>2503</v>
       </c>
       <c r="O30">
-        <f>ROUND(O18,0)</f>
-        <v>1326</v>
+        <f t="shared" si="23"/>
+        <v>2652</v>
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
@@ -1677,52 +1682,52 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <f>ROUND(D19,0)</f>
-        <v>1405</v>
+        <f t="shared" ref="D31:O31" si="24">ROUND(D19,0)</f>
+        <v>2809</v>
       </c>
       <c r="E31">
-        <f>ROUND(E19,0)</f>
-        <v>1488</v>
+        <f t="shared" si="24"/>
+        <v>2976</v>
       </c>
       <c r="F31">
-        <f>ROUND(F19,0)</f>
-        <v>1577</v>
+        <f t="shared" si="24"/>
+        <v>3153</v>
       </c>
       <c r="G31">
-        <f>ROUND(G19,0)</f>
-        <v>1670</v>
+        <f t="shared" si="24"/>
+        <v>3341</v>
       </c>
       <c r="H31">
-        <f>ROUND(H19,0)</f>
-        <v>1770</v>
+        <f t="shared" si="24"/>
+        <v>3539</v>
       </c>
       <c r="I31">
-        <f>ROUND(I19,0)</f>
-        <v>1875</v>
+        <f t="shared" si="24"/>
+        <v>3750</v>
       </c>
       <c r="J31">
-        <f>ROUND(J19,0)</f>
-        <v>1986</v>
+        <f t="shared" si="24"/>
+        <v>3973</v>
       </c>
       <c r="K31">
-        <f>ROUND(K19,0)</f>
-        <v>2105</v>
+        <f t="shared" si="24"/>
+        <v>4209</v>
       </c>
       <c r="L31">
-        <f>ROUND(L19,0)</f>
-        <v>2230</v>
+        <f t="shared" si="24"/>
+        <v>4459</v>
       </c>
       <c r="M31">
-        <f>ROUND(M19,0)</f>
-        <v>2362</v>
+        <f t="shared" si="24"/>
+        <v>4724</v>
       </c>
       <c r="N31">
-        <f>ROUND(N19,0)</f>
-        <v>2503</v>
+        <f t="shared" si="24"/>
+        <v>5005</v>
       </c>
       <c r="O31">
-        <f>ROUND(O19,0)</f>
-        <v>2652</v>
+        <f t="shared" si="24"/>
+        <v>5303</v>
       </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.25">
@@ -1730,52 +1735,52 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <f>ROUND(D20,0)</f>
-        <v>2809</v>
+        <f t="shared" ref="D32:O32" si="25">ROUND(D20,0)</f>
+        <v>5619</v>
       </c>
       <c r="E32">
-        <f>ROUND(E20,0)</f>
-        <v>2976</v>
+        <f t="shared" si="25"/>
+        <v>5952</v>
       </c>
       <c r="F32">
-        <f>ROUND(F20,0)</f>
-        <v>3153</v>
+        <f t="shared" si="25"/>
+        <v>6306</v>
       </c>
       <c r="G32">
-        <f>ROUND(G20,0)</f>
-        <v>3341</v>
+        <f t="shared" si="25"/>
+        <v>6681</v>
       </c>
       <c r="H32">
-        <f>ROUND(H20,0)</f>
-        <v>3539</v>
+        <f t="shared" si="25"/>
+        <v>7079</v>
       </c>
       <c r="I32">
-        <f>ROUND(I20,0)</f>
-        <v>3750</v>
+        <f t="shared" si="25"/>
+        <v>7500</v>
       </c>
       <c r="J32">
-        <f>ROUND(J20,0)</f>
-        <v>3973</v>
+        <f t="shared" si="25"/>
+        <v>7946</v>
       </c>
       <c r="K32">
-        <f>ROUND(K20,0)</f>
-        <v>4209</v>
+        <f t="shared" si="25"/>
+        <v>8418</v>
       </c>
       <c r="L32">
-        <f>ROUND(L20,0)</f>
-        <v>4459</v>
+        <f t="shared" si="25"/>
+        <v>8919</v>
       </c>
       <c r="M32">
-        <f>ROUND(M20,0)</f>
-        <v>4724</v>
+        <f t="shared" si="25"/>
+        <v>9449</v>
       </c>
       <c r="N32">
-        <f>ROUND(N20,0)</f>
-        <v>5005</v>
+        <f t="shared" si="25"/>
+        <v>10011</v>
       </c>
       <c r="O32">
-        <f>ROUND(O20,0)</f>
-        <v>5303</v>
+        <f t="shared" si="25"/>
+        <v>10606</v>
       </c>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.25">
@@ -1783,52 +1788,52 @@
         <v>3</v>
       </c>
       <c r="D33">
-        <f>ROUND(D21,0)</f>
-        <v>5619</v>
+        <f t="shared" ref="D33:O33" si="26">ROUND(D21,0)</f>
+        <v>11237</v>
       </c>
       <c r="E33">
-        <f>ROUND(E21,0)</f>
-        <v>5952</v>
+        <f t="shared" si="26"/>
+        <v>11905</v>
       </c>
       <c r="F33">
-        <f>ROUND(F21,0)</f>
-        <v>6306</v>
+        <f t="shared" si="26"/>
+        <v>12613</v>
       </c>
       <c r="G33">
-        <f>ROUND(G21,0)</f>
-        <v>6681</v>
+        <f t="shared" si="26"/>
+        <v>13363</v>
       </c>
       <c r="H33">
-        <f>ROUND(H21,0)</f>
-        <v>7079</v>
+        <f t="shared" si="26"/>
+        <v>14158</v>
       </c>
       <c r="I33">
-        <f>ROUND(I21,0)</f>
-        <v>7500</v>
+        <f t="shared" si="26"/>
+        <v>14999</v>
       </c>
       <c r="J33">
-        <f>ROUND(J21,0)</f>
-        <v>7946</v>
+        <f t="shared" si="26"/>
+        <v>15891</v>
       </c>
       <c r="K33">
-        <f>ROUND(K21,0)</f>
-        <v>8418</v>
+        <f t="shared" si="26"/>
+        <v>16836</v>
       </c>
       <c r="L33">
-        <f>ROUND(L21,0)</f>
-        <v>8919</v>
+        <f t="shared" si="26"/>
+        <v>17838</v>
       </c>
       <c r="M33">
-        <f>ROUND(M21,0)</f>
-        <v>9449</v>
+        <f t="shared" si="26"/>
+        <v>18898</v>
       </c>
       <c r="N33">
-        <f>ROUND(N21,0)</f>
-        <v>10011</v>
+        <f t="shared" si="26"/>
+        <v>20021</v>
       </c>
       <c r="O33">
-        <f>ROUND(O21,0)</f>
-        <v>10606</v>
+        <f t="shared" si="26"/>
+        <v>21212</v>
       </c>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.25">
@@ -1836,52 +1841,52 @@
         <v>4</v>
       </c>
       <c r="D34">
-        <f>ROUND(D22,0)</f>
-        <v>11237</v>
+        <f t="shared" ref="D34:O34" si="27">ROUND(D22,0)</f>
+        <v>22474</v>
       </c>
       <c r="E34">
-        <f>ROUND(E22,0)</f>
-        <v>11905</v>
+        <f t="shared" si="27"/>
+        <v>23810</v>
       </c>
       <c r="F34">
-        <f>ROUND(F22,0)</f>
-        <v>12613</v>
+        <f t="shared" si="27"/>
+        <v>25226</v>
       </c>
       <c r="G34">
-        <f>ROUND(G22,0)</f>
-        <v>13363</v>
+        <f t="shared" si="27"/>
+        <v>26725</v>
       </c>
       <c r="H34">
-        <f>ROUND(H22,0)</f>
-        <v>14158</v>
+        <f t="shared" si="27"/>
+        <v>28315</v>
       </c>
       <c r="I34">
-        <f>ROUND(I22,0)</f>
-        <v>14999</v>
+        <f t="shared" si="27"/>
+        <v>29999</v>
       </c>
       <c r="J34">
-        <f>ROUND(J22,0)</f>
-        <v>15891</v>
+        <f t="shared" si="27"/>
+        <v>31783</v>
       </c>
       <c r="K34">
-        <f>ROUND(K22,0)</f>
-        <v>16836</v>
+        <f t="shared" si="27"/>
+        <v>33673</v>
       </c>
       <c r="L34">
-        <f>ROUND(L22,0)</f>
-        <v>17838</v>
+        <f t="shared" si="27"/>
+        <v>35675</v>
       </c>
       <c r="M34">
-        <f>ROUND(M22,0)</f>
-        <v>18898</v>
+        <f t="shared" si="27"/>
+        <v>37796</v>
       </c>
       <c r="N34">
-        <f>ROUND(N22,0)</f>
-        <v>20021</v>
+        <f t="shared" si="27"/>
+        <v>40043</v>
       </c>
       <c r="O34">
-        <f>ROUND(O22,0)</f>
-        <v>21212</v>
+        <f t="shared" si="27"/>
+        <v>42425</v>
       </c>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
@@ -1889,52 +1894,52 @@
         <v>5</v>
       </c>
       <c r="D35">
-        <f>ROUND(D23,0)</f>
-        <v>22474</v>
+        <f t="shared" ref="D35:O35" si="28">ROUND(D23,0)</f>
+        <v>44948</v>
       </c>
       <c r="E35">
-        <f>ROUND(E23,0)</f>
-        <v>23810</v>
+        <f t="shared" si="28"/>
+        <v>47620</v>
       </c>
       <c r="F35">
-        <f>ROUND(F23,0)</f>
-        <v>25226</v>
+        <f t="shared" si="28"/>
+        <v>50451</v>
       </c>
       <c r="G35">
-        <f>ROUND(G23,0)</f>
-        <v>26725</v>
+        <f t="shared" si="28"/>
+        <v>53450</v>
       </c>
       <c r="H35">
-        <f>ROUND(H23,0)</f>
-        <v>28315</v>
+        <f t="shared" si="28"/>
+        <v>56630</v>
       </c>
       <c r="I35">
-        <f>ROUND(I23,0)</f>
-        <v>29999</v>
+        <f t="shared" si="28"/>
+        <v>59998</v>
       </c>
       <c r="J35">
-        <f>ROUND(J23,0)</f>
-        <v>31783</v>
+        <f t="shared" si="28"/>
+        <v>63566</v>
       </c>
       <c r="K35">
-        <f>ROUND(K23,0)</f>
-        <v>33673</v>
+        <f t="shared" si="28"/>
+        <v>67345</v>
       </c>
       <c r="L35">
-        <f>ROUND(L23,0)</f>
-        <v>35675</v>
+        <f t="shared" si="28"/>
+        <v>71350</v>
       </c>
       <c r="M35">
-        <f>ROUND(M23,0)</f>
-        <v>37796</v>
+        <f t="shared" si="28"/>
+        <v>75591</v>
       </c>
       <c r="N35">
-        <f>ROUND(N23,0)</f>
-        <v>40043</v>
+        <f t="shared" si="28"/>
+        <v>80086</v>
       </c>
       <c r="O35">
-        <f>ROUND(O23,0)</f>
-        <v>42425</v>
+        <f t="shared" si="28"/>
+        <v>84849</v>
       </c>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
@@ -1942,52 +1947,52 @@
         <v>6</v>
       </c>
       <c r="D36">
-        <f>ROUND(D24,0)</f>
-        <v>44948</v>
+        <f t="shared" ref="D36:O36" si="29">ROUND(D24,0)</f>
+        <v>89896</v>
       </c>
       <c r="E36">
-        <f>ROUND(E24,0)</f>
-        <v>47620</v>
+        <f t="shared" si="29"/>
+        <v>95240</v>
       </c>
       <c r="F36">
-        <f>ROUND(F24,0)</f>
-        <v>50451</v>
+        <f t="shared" si="29"/>
+        <v>100902</v>
       </c>
       <c r="G36">
-        <f>ROUND(G24,0)</f>
-        <v>53450</v>
+        <f t="shared" si="29"/>
+        <v>106900</v>
       </c>
       <c r="H36">
-        <f>ROUND(H24,0)</f>
-        <v>56630</v>
+        <f t="shared" si="29"/>
+        <v>113261</v>
       </c>
       <c r="I36">
-        <f>ROUND(I24,0)</f>
-        <v>59998</v>
+        <f t="shared" si="29"/>
+        <v>119995</v>
       </c>
       <c r="J36">
-        <f>ROUND(J24,0)</f>
-        <v>63566</v>
+        <f t="shared" si="29"/>
+        <v>127131</v>
       </c>
       <c r="K36">
-        <f>ROUND(K24,0)</f>
-        <v>67345</v>
+        <f t="shared" si="29"/>
+        <v>134690</v>
       </c>
       <c r="L36">
-        <f>ROUND(L24,0)</f>
-        <v>71350</v>
+        <f t="shared" si="29"/>
+        <v>142700</v>
       </c>
       <c r="M36">
-        <f>ROUND(M24,0)</f>
-        <v>75591</v>
+        <f t="shared" si="29"/>
+        <v>151183</v>
       </c>
       <c r="N36">
-        <f>ROUND(N24,0)</f>
-        <v>80086</v>
+        <f t="shared" si="29"/>
+        <v>160171</v>
       </c>
       <c r="O36">
-        <f>ROUND(O24,0)</f>
-        <v>84849</v>
+        <f t="shared" si="29"/>
+        <v>169699</v>
       </c>
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.25">
@@ -1995,52 +2000,52 @@
         <v>7</v>
       </c>
       <c r="D37">
-        <f>ROUND(D25,0)</f>
-        <v>89896</v>
+        <f t="shared" ref="D37:O37" si="30">ROUND(D25,0)</f>
+        <v>179792</v>
       </c>
       <c r="E37">
-        <f>ROUND(E25,0)</f>
-        <v>95240</v>
+        <f t="shared" si="30"/>
+        <v>190479</v>
       </c>
       <c r="F37">
-        <f>ROUND(F25,0)</f>
-        <v>100902</v>
+        <f t="shared" si="30"/>
+        <v>201804</v>
       </c>
       <c r="G37">
-        <f>ROUND(G25,0)</f>
-        <v>106900</v>
+        <f t="shared" si="30"/>
+        <v>213800</v>
       </c>
       <c r="H37">
-        <f>ROUND(H25,0)</f>
-        <v>113261</v>
+        <f t="shared" si="30"/>
+        <v>226521</v>
       </c>
       <c r="I37">
-        <f>ROUND(I25,0)</f>
-        <v>119995</v>
+        <f t="shared" si="30"/>
+        <v>239990</v>
       </c>
       <c r="J37">
-        <f>ROUND(J25,0)</f>
-        <v>127131</v>
+        <f t="shared" si="30"/>
+        <v>254262</v>
       </c>
       <c r="K37">
-        <f>ROUND(K25,0)</f>
-        <v>134690</v>
+        <f t="shared" si="30"/>
+        <v>269380</v>
       </c>
       <c r="L37">
-        <f>ROUND(L25,0)</f>
-        <v>142700</v>
+        <f t="shared" si="30"/>
+        <v>285400</v>
       </c>
       <c r="M37">
-        <f>ROUND(M25,0)</f>
-        <v>151183</v>
+        <f t="shared" si="30"/>
+        <v>302366</v>
       </c>
       <c r="N37">
-        <f>ROUND(N25,0)</f>
-        <v>160171</v>
+        <f t="shared" si="30"/>
+        <v>320343</v>
       </c>
       <c r="O37">
-        <f>ROUND(O25,0)</f>
-        <v>169699</v>
+        <f t="shared" si="30"/>
+        <v>339397</v>
       </c>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.25">
@@ -2048,52 +2053,52 @@
         <v>8</v>
       </c>
       <c r="D38">
-        <f>ROUND(D26,0)</f>
-        <v>179792</v>
+        <f t="shared" ref="D38:O38" si="31">ROUND(D26,0)</f>
+        <v>359584</v>
       </c>
       <c r="E38">
-        <f>ROUND(E26,0)</f>
-        <v>190479</v>
+        <f t="shared" si="31"/>
+        <v>380959</v>
       </c>
       <c r="F38">
-        <f>ROUND(F26,0)</f>
-        <v>201804</v>
+        <f t="shared" si="31"/>
+        <v>403609</v>
       </c>
       <c r="G38">
-        <f>ROUND(G26,0)</f>
-        <v>213800</v>
+        <f t="shared" si="31"/>
+        <v>427600</v>
       </c>
       <c r="H38">
-        <f>ROUND(H26,0)</f>
-        <v>226521</v>
+        <f t="shared" si="31"/>
+        <v>453043</v>
       </c>
       <c r="I38">
-        <f>ROUND(I26,0)</f>
-        <v>239990</v>
+        <f t="shared" si="31"/>
+        <v>479981</v>
       </c>
       <c r="J38">
-        <f>ROUND(J26,0)</f>
-        <v>254262</v>
+        <f t="shared" si="31"/>
+        <v>508524</v>
       </c>
       <c r="K38">
-        <f>ROUND(K26,0)</f>
-        <v>269380</v>
+        <f t="shared" si="31"/>
+        <v>538761</v>
       </c>
       <c r="L38">
-        <f>ROUND(L26,0)</f>
-        <v>285400</v>
+        <f t="shared" si="31"/>
+        <v>570800</v>
       </c>
       <c r="M38">
-        <f>ROUND(M26,0)</f>
-        <v>302366</v>
+        <f t="shared" si="31"/>
+        <v>604731</v>
       </c>
       <c r="N38">
-        <f>ROUND(N26,0)</f>
-        <v>320343</v>
+        <f t="shared" si="31"/>
+        <v>640685</v>
       </c>
       <c r="O38">
-        <f>ROUND(O26,0)</f>
-        <v>339397</v>
+        <f t="shared" si="31"/>
+        <v>678794</v>
       </c>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.25">
@@ -2101,52 +2106,52 @@
         <v>9</v>
       </c>
       <c r="D39">
-        <f>ROUND(D27,0)</f>
-        <v>359584</v>
+        <f t="shared" ref="D39:O39" si="32">ROUND(D27,0)</f>
+        <v>719169</v>
       </c>
       <c r="E39">
-        <f>ROUND(E27,0)</f>
-        <v>380959</v>
+        <f t="shared" si="32"/>
+        <v>761918</v>
       </c>
       <c r="F39">
-        <f>ROUND(F27,0)</f>
-        <v>403609</v>
+        <f t="shared" si="32"/>
+        <v>807217</v>
       </c>
       <c r="G39">
-        <f>ROUND(G27,0)</f>
-        <v>427600</v>
+        <f t="shared" si="32"/>
+        <v>855200</v>
       </c>
       <c r="H39">
-        <f>ROUND(H27,0)</f>
-        <v>453043</v>
+        <f t="shared" si="32"/>
+        <v>906086</v>
       </c>
       <c r="I39">
-        <f>ROUND(I27,0)</f>
-        <v>479981</v>
+        <f t="shared" si="32"/>
+        <v>959962</v>
       </c>
       <c r="J39">
-        <f>ROUND(J27,0)</f>
-        <v>508524</v>
+        <f t="shared" si="32"/>
+        <v>1017048</v>
       </c>
       <c r="K39">
-        <f>ROUND(K27,0)</f>
-        <v>538761</v>
+        <f t="shared" si="32"/>
+        <v>1077521</v>
       </c>
       <c r="L39">
-        <f>ROUND(L27,0)</f>
-        <v>570800</v>
+        <f t="shared" si="32"/>
+        <v>1141601</v>
       </c>
       <c r="M39">
-        <f>ROUND(M27,0)</f>
-        <v>604731</v>
+        <f t="shared" si="32"/>
+        <v>1209463</v>
       </c>
       <c r="N39">
-        <f>ROUND(N27,0)</f>
-        <v>640685</v>
+        <f t="shared" si="32"/>
+        <v>1281371</v>
       </c>
       <c r="O39">
-        <f>ROUND(O27,0)</f>
-        <v>678794</v>
+        <f t="shared" si="32"/>
+        <v>1357589</v>
       </c>
     </row>
   </sheetData>
